--- a/src/test/resources/testdata/HomePage_005_Overview_Jifen.xlsx
+++ b/src/test/resources/testdata/HomePage_005_Overview_Jifen.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>helloxwr</t>
-  </si>
-  <si>
-    <t>Gmcc_1234</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>网易邮箱用户俱乐部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,39 +392,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
